--- a/src/main/resources/menual/bidProgressItemDetail.xlsx
+++ b/src/main/resources/menual/bidProgressItemDetail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\iljinWorkspace\iljin_backend\src\main\resources\menual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdwls\Documents\iljin_backend\src\main\resources\menual\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D7B4F5-681B-4CD3-A52D-25884EDC4553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21612" windowHeight="7812"/>
+    <workbookView xWindow="75" yWindow="60" windowWidth="17550" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,23 +151,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>실행단가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정단가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,29 +281,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -591,183 +592,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="7" width="10.69921875" customWidth="1"/>
+    <col min="2" max="7" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -778,167 +779,162 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="4" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="11"/>
+      <c r="K29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G3"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B15:G15"/>
@@ -947,10 +943,15 @@
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="A18:G19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="A18:G19"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
